--- a/template/question.xlsx
+++ b/template/question.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - ayang\Work\Go\src\icbc.com\quiz\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FBE80B-0596-4675-B55A-944FE85CF616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FD17E6-2703-4992-BA0D-2EC473F5BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{7FC5F8D9-9F7A-4CAD-882D-8BDABD1F987F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{7FC5F8D9-9F7A-4CAD-882D-8BDABD1F987F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +89,80 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">multi </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">该类型题目数量 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单选题 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">多选题 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">judge </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>q15</t>
   </si>
 </sst>
 </file>
@@ -465,13 +540,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0582C97F-8AE1-4635-91C8-9D213CB705ED}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14382A9B-A8B9-46D7-A9CD-FEAFAF68871C}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.08203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -493,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -513,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -533,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -551,10 +696,251 @@
       </c>
       <c r="F4" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>